--- a/BCDevNotebook_ReportingExamples/src/SalesOrderGrossWeightItemCat/TBMRSalesOrderItemCategory.xlsx
+++ b/BCDevNotebook_ReportingExamples/src/SalesOrderGrossWeightItemCat/TBMRSalesOrderItemCategory.xlsx
@@ -14,7 +14,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="SalesOrdersGrossWeight" sheetId="6" r:id="rId1"/>
-    <x:sheet name="Data" sheetId="1" r:id="R52760a333abd4b34"/>
+    <x:sheet name="Data" sheetId="1" r:id="R1eb0107273b34e2f"/>
     <x:sheet name="CaptionData" sheetId="2" r:id="rId3"/>
     <x:sheet name="Aggregated Metadata" sheetId="3" state="hidden" r:id="rId4"/>
     <x:sheet name="TranslationData" sheetId="4" state="hidden" r:id="rId5"/>
@@ -50907,7 +50907,7 @@
         <x:v>Tenant Id</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>msft1a6720t47747017</x:v>
+        <x:v>msft1a6720t22917560</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -51082,7 +51082,7 @@
         <x:v>Company Id</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>15060369-3105-f011-9af4-6045bdc89d13</x:v>
+        <x:v>162915c7-5408-f011-9af6-6045bde9c6b1</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -51152,7 +51152,7 @@
         <x:v>Date</x:v>
       </x:c>
       <x:c s="7">
-        <x:v>45748.266820034725</x:v>
+        <x:v>45749.080966724534</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -51292,7 +51292,7 @@
         <x:v>Layout caption</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Excel Refresh via API</x:v>
+        <x:v>Excel Layout</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -51327,7 +51327,7 @@
         <x:v>Layout id</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>7673cc3d-bb22-44f4-81eb-9266ffb8cb59</x:v>
+        <x:v>473b4ba6-150d-4d71-a104-92e8de720f71</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -51401,7 +51401,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:J24498"/>
   <x:sheetViews>
@@ -52031,7 +52031,7 @@
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId1Update"/>
+    <x:tablePart r:id="rId1UpdateUpdate"/>
   </x:tableParts>
 </x:worksheet>
 </file>
